--- a/data/corona_alldates_excel.xlsx
+++ b/data/corona_alldates_excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HelpCorona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC9124E-865E-479F-AD16-EB45FB986434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B2F1D2-82CB-42BD-A08E-02876B0D0E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="13785" windowHeight="11715" xr2:uid="{164C3BB2-1310-4D3B-98AD-060856E41B61}"/>
+    <workbookView xWindow="17310" yWindow="1470" windowWidth="13785" windowHeight="11715" xr2:uid="{164C3BB2-1310-4D3B-98AD-060856E41B61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,83 @@
   <si>
     <t>3월12일</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월13일</t>
+  </si>
+  <si>
+    <t>3월14일</t>
+  </si>
+  <si>
+    <t>3월15일</t>
+  </si>
+  <si>
+    <t>3월16일</t>
+  </si>
+  <si>
+    <t>3월17일</t>
+  </si>
+  <si>
+    <t>3월18일</t>
+  </si>
+  <si>
+    <t>3월19일</t>
+  </si>
+  <si>
+    <t>3월20일</t>
+  </si>
+  <si>
+    <t>3월21일</t>
+  </si>
+  <si>
+    <t>3월22일</t>
+  </si>
+  <si>
+    <t>3월23일</t>
+  </si>
+  <si>
+    <t>3월24일</t>
+  </si>
+  <si>
+    <t>3월25일</t>
+  </si>
+  <si>
+    <t>3월26일</t>
+  </si>
+  <si>
+    <t>3월27일</t>
+  </si>
+  <si>
+    <t>3월28일</t>
+  </si>
+  <si>
+    <t>3월29일</t>
+  </si>
+  <si>
+    <t>3월30일</t>
+  </si>
+  <si>
+    <t>3월31일</t>
+  </si>
+  <si>
+    <t>4월1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월3일</t>
+  </si>
+  <si>
+    <t>4월4일</t>
+  </si>
+  <si>
+    <t>4월5일</t>
+  </si>
+  <si>
+    <t>4월6일</t>
   </si>
 </sst>
 </file>
@@ -466,13 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F994C36A-8A4F-4081-B4C3-84BB01E56E4D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -513,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="0">B3+C4</f>
+        <f t="shared" ref="B4:B41" si="0">B3+C4</f>
         <v>3736</v>
       </c>
       <c r="C4">
@@ -658,7 +739,307 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>7869</v>
+        <v>7979</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8086</v>
+      </c>
+      <c r="C17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>8162</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>8236</v>
+      </c>
+      <c r="C19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>8320</v>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>8413</v>
+      </c>
+      <c r="C21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8565</v>
+      </c>
+      <c r="C22">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>8652</v>
+      </c>
+      <c r="C23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>8799</v>
+      </c>
+      <c r="C24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>8897</v>
+      </c>
+      <c r="C25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>8961</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>9037</v>
+      </c>
+      <c r="C27">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>9137</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>9241</v>
+      </c>
+      <c r="C29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>9332</v>
+      </c>
+      <c r="C30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>9478</v>
+      </c>
+      <c r="C31">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>9583</v>
+      </c>
+      <c r="C32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>9661</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>9786</v>
+      </c>
+      <c r="C34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>9887</v>
+      </c>
+      <c r="C35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>9976</v>
+      </c>
+      <c r="C36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>10062</v>
+      </c>
+      <c r="C37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>10156</v>
+      </c>
+      <c r="C38">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>10237</v>
+      </c>
+      <c r="C39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>10284</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>10284</v>
       </c>
     </row>
   </sheetData>
